--- a/biology/Écologie/Indice_de_Simpson/Indice_de_Simpson.xlsx
+++ b/biology/Écologie/Indice_de_Simpson/Indice_de_Simpson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indice de Simpson est un indice permettant de mesurer la diversité d'un milieu, créé par Edward Simpson en 1949, en calculant la probabilité que deux individus sélectionnés au hasard appartiennent à la même espèce. 
-Plus globalement, cet indice mesure le degré de concentrations d'individus classés en catégories[1]. En économie on parle parfois de l'indice d'Herfindahl ou de Herfindahl-Hirschman, en raison du travail de ces économistes sur cette formule[2],[3].
+Plus globalement, cet indice mesure le degré de concentrations d'individus classés en catégories. En économie on parle parfois de l'indice d'Herfindahl ou de Herfindahl-Hirschman, en raison du travail de ces économistes sur cette formule,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Formule</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La probabilité que deux individus pris au hasard soient de la même espèce se calcul comme suit[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La probabilité que deux individus pris au hasard soient de la même espèce se calcul comme suit :
         λ
         =
           ∑
@@ -551,7 +565,7 @@
               1
               )
     {\displaystyle \ell ={\frac {\sum _{i=1}^{R}n_{i}(n_{i}-1)}{N(N-1)}}}
-où ni est le nombre d'individus appartenant à la ième espèce et N est le nombre total d'individus dans le jeu de données[1]. Cet indice de Simpson modifié est aussi connu sous le nom d'indice de Hunter–Gaston en microbiologie[4].
+où ni est le nombre d'individus appartenant à la ième espèce et N est le nombre total d'individus dans le jeu de données. Cet indice de Simpson modifié est aussi connu sous le nom d'indice de Hunter–Gaston en microbiologie.
 </t>
         </is>
       </c>
